--- a/NformTester/NformTester/Keywordscripts/600.40.20.70_InvokedAndRevokedSetDeviceData.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.70_InvokedAndRevokedSetDeviceData.xlsx
@@ -4806,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.40.20.70_InvokedAndRevokedSetDeviceData.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.70_InvokedAndRevokedSetDeviceData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7744" uniqueCount="852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7748" uniqueCount="852">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4079,7 +4079,21 @@
     <cellStyle name="常规 2 3" xfId="4"/>
     <cellStyle name="常规 2 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4804,10 +4818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O230"/>
+  <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51:K77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5020,7 +5034,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -8363,89 +8377,90 @@
       <c r="L128" s="20"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="3:13">
+    <row r="129" spans="3:14">
       <c r="C129" s="4">
         <v>128</v>
       </c>
-      <c r="D129" s="18" t="s">
-        <v>831</v>
+      <c r="D129" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E129" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="19" t="s">
-        <v>70</v>
+      <c r="F129" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="G129" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H129" s="19"/>
+      <c r="H129" s="22"/>
       <c r="I129" s="4"/>
-      <c r="J129" s="20"/>
+      <c r="J129" s="4"/>
       <c r="K129" s="20"/>
       <c r="L129" s="20"/>
-      <c r="M129" s="4"/>
-    </row>
-    <row r="130" spans="3:13">
+      <c r="M129" s="20"/>
+      <c r="N129" s="12"/>
+    </row>
+    <row r="130" spans="3:14">
       <c r="C130" s="4">
         <v>129</v>
       </c>
-      <c r="D130" s="21" t="s">
-        <v>832</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>795</v>
-      </c>
+      <c r="D130" s="18" t="s">
+        <v>831</v>
+      </c>
+      <c r="E130" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F130" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G130" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
       <c r="L130" s="20"/>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="3:13">
+    <row r="131" spans="3:14">
       <c r="C131" s="4">
         <v>130</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>826</v>
-      </c>
-      <c r="E131" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="19" t="s">
-        <v>797</v>
-      </c>
-      <c r="G131" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
+        <v>832</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="J131" s="20"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="3:13">
+    <row r="132" spans="3:14">
       <c r="C132" s="4">
         <v>131</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>77</v>
+        <v>797</v>
       </c>
       <c r="G132" s="19" t="s">
         <v>2</v>
@@ -8457,32 +8472,30 @@
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="3:13">
+    <row r="133" spans="3:14">
       <c r="C133" s="4">
         <v>132</v>
       </c>
-      <c r="D133" s="18" t="s">
-        <v>815</v>
+      <c r="D133" s="21" t="s">
+        <v>786</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H133" s="4" t="s">
-        <v>829</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F133" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G133" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="19"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="3:13">
+    <row r="134" spans="3:14">
       <c r="C134" s="4">
         <v>133</v>
       </c>
@@ -8492,20 +8505,22 @@
       <c r="E134" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F134" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G134" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>829</v>
+      </c>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
     </row>
-    <row r="135" spans="3:13">
+    <row r="135" spans="3:14">
       <c r="C135" s="4">
         <v>134</v>
       </c>
@@ -8515,22 +8530,20 @@
       <c r="E135" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>830</v>
-      </c>
+      <c r="F135" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G135" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
     </row>
-    <row r="136" spans="3:13">
+    <row r="136" spans="3:14">
       <c r="C136" s="4">
         <v>135</v>
       </c>
@@ -8540,20 +8553,22 @@
       <c r="E136" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F136" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="G136" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>830</v>
+      </c>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
     </row>
-    <row r="137" spans="3:13">
+    <row r="137" spans="3:14">
       <c r="C137" s="4">
         <v>136</v>
       </c>
@@ -8563,43 +8578,43 @@
       <c r="E137" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F137" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H137" s="14"/>
+      <c r="F137" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G137" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="3:13">
+    <row r="138" spans="3:14">
       <c r="C138" s="4">
         <v>137</v>
       </c>
-      <c r="D138" s="21" t="s">
-        <v>786</v>
+      <c r="D138" s="18" t="s">
+        <v>815</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F138" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" s="19"/>
+        <v>235</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" s="14"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="3:13">
+    <row r="139" spans="3:14">
       <c r="C139" s="4">
         <v>138</v>
       </c>
@@ -8610,7 +8625,7 @@
         <v>19</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="G139" s="20" t="s">
         <v>2</v>
@@ -8622,7 +8637,7 @@
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="3:13">
+    <row r="140" spans="3:14">
       <c r="C140" s="4">
         <v>139</v>
       </c>
@@ -8630,24 +8645,22 @@
         <v>786</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>572</v>
+        <v>19</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>573</v>
+        <v>74</v>
       </c>
       <c r="G140" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H140" s="20" t="s">
-        <v>851</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" s="19"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="3:13" ht="14.25">
+    <row r="141" spans="3:14">
       <c r="C141" s="4">
         <v>140</v>
       </c>
@@ -8658,53 +8671,55 @@
         <v>572</v>
       </c>
       <c r="F141" s="20" t="s">
-        <v>178</v>
+        <v>573</v>
       </c>
       <c r="G141" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="23"/>
+        <v>3</v>
+      </c>
+      <c r="H141" s="20" t="s">
+        <v>851</v>
+      </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
     </row>
-    <row r="142" spans="3:13">
+    <row r="142" spans="3:14" ht="14.25">
       <c r="C142" s="4">
         <v>141</v>
       </c>
       <c r="D142" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="E142" s="20" t="s">
-        <v>578</v>
+      <c r="E142" s="19" t="s">
+        <v>572</v>
       </c>
       <c r="F142" s="20" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G142" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H142" s="19"/>
+      <c r="H142" s="23"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="3:13">
+    <row r="143" spans="3:14">
       <c r="C143" s="4">
         <v>142</v>
       </c>
       <c r="D143" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="E143" s="19" t="s">
-        <v>572</v>
+      <c r="E143" s="20" t="s">
+        <v>578</v>
       </c>
       <c r="F143" s="20" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="G143" s="20" t="s">
         <v>2</v>
@@ -8716,14 +8731,22 @@
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
     </row>
-    <row r="144" spans="3:13">
+    <row r="144" spans="3:14">
       <c r="C144" s="4">
         <v>143</v>
       </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
+      <c r="D144" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G144" s="20" t="s">
+        <v>2</v>
+      </c>
       <c r="H144" s="19"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -8732,9 +8755,7 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="3:13">
-      <c r="C145" s="4">
-        <v>144</v>
-      </c>
+      <c r="C145" s="4"/>
       <c r="D145" s="18"/>
       <c r="E145" s="19"/>
       <c r="F145" s="4"/>
@@ -8747,9 +8768,7 @@
       <c r="M145" s="4"/>
     </row>
     <row r="146" spans="3:13">
-      <c r="C146" s="4">
-        <v>145</v>
-      </c>
+      <c r="C146" s="4"/>
       <c r="D146" s="18"/>
       <c r="E146" s="19"/>
       <c r="F146" s="4"/>
@@ -8762,9 +8781,7 @@
       <c r="M146" s="4"/>
     </row>
     <row r="147" spans="3:13">
-      <c r="C147" s="4">
-        <v>146</v>
-      </c>
+      <c r="C147" s="4"/>
       <c r="D147" s="18"/>
       <c r="E147" s="19"/>
       <c r="F147" s="4"/>
@@ -8777,9 +8794,7 @@
       <c r="M147" s="4"/>
     </row>
     <row r="148" spans="3:13">
-      <c r="C148" s="4">
-        <v>147</v>
-      </c>
+      <c r="C148" s="4"/>
       <c r="D148" s="18"/>
       <c r="E148" s="19"/>
       <c r="F148" s="4"/>
@@ -8792,9 +8807,7 @@
       <c r="M148" s="4"/>
     </row>
     <row r="149" spans="3:13">
-      <c r="C149" s="4">
-        <v>148</v>
-      </c>
+      <c r="C149" s="4"/>
       <c r="D149" s="18"/>
       <c r="E149" s="19"/>
       <c r="F149" s="4"/>
@@ -8807,9 +8820,7 @@
       <c r="M149" s="4"/>
     </row>
     <row r="150" spans="3:13">
-      <c r="C150" s="4">
-        <v>149</v>
-      </c>
+      <c r="C150" s="4"/>
       <c r="D150" s="18"/>
       <c r="E150" s="19"/>
       <c r="F150" s="4"/>
@@ -8822,9 +8833,7 @@
       <c r="M150" s="4"/>
     </row>
     <row r="151" spans="3:13">
-      <c r="C151" s="4">
-        <v>150</v>
-      </c>
+      <c r="C151" s="4"/>
       <c r="D151" s="18"/>
       <c r="E151" s="19"/>
       <c r="F151" s="4"/>
@@ -9104,7 +9113,6 @@
       <c r="G172" s="4"/>
       <c r="H172" s="19"/>
       <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
       <c r="M172" s="4"/>
@@ -9117,7 +9125,6 @@
       <c r="G173" s="4"/>
       <c r="H173" s="19"/>
       <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
       <c r="K173" s="4"/>
       <c r="L173" s="4"/>
       <c r="M173" s="4"/>
@@ -9130,8 +9137,6 @@
       <c r="G174" s="4"/>
       <c r="H174" s="19"/>
       <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
       <c r="L174" s="4"/>
       <c r="M174" s="4"/>
     </row>
@@ -9143,93 +9148,41 @@
       <c r="G175" s="4"/>
       <c r="H175" s="19"/>
       <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
       <c r="L175" s="4"/>
       <c r="M175" s="4"/>
     </row>
     <row r="176" spans="3:13">
       <c r="C176" s="4"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
       <c r="L176" s="4"/>
       <c r="M176" s="4"/>
     </row>
     <row r="177" spans="3:13">
       <c r="C177" s="4"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
       <c r="L177" s="4"/>
       <c r="M177" s="4"/>
     </row>
     <row r="178" spans="3:13">
       <c r="C178" s="4"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="4"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
       <c r="L178" s="4"/>
       <c r="M178" s="4"/>
     </row>
     <row r="179" spans="3:13">
       <c r="C179" s="4"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="4"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="4"/>
-      <c r="K179" s="4"/>
       <c r="L179" s="4"/>
       <c r="M179" s="4"/>
     </row>
     <row r="180" spans="3:13">
       <c r="C180" s="4"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="4"/>
-      <c r="K180" s="4"/>
       <c r="L180" s="4"/>
       <c r="M180" s="4"/>
     </row>
     <row r="181" spans="3:13">
       <c r="C181" s="4"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="19"/>
-      <c r="I181" s="4"/>
       <c r="L181" s="4"/>
       <c r="M181" s="4"/>
     </row>
     <row r="182" spans="3:13">
       <c r="C182" s="4"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="4"/>
       <c r="L182" s="4"/>
       <c r="M182" s="4"/>
     </row>
@@ -9256,89 +9209,75 @@
     <row r="187" spans="3:13">
       <c r="C187" s="4"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="4"/>
     </row>
     <row r="188" spans="3:13">
       <c r="C188" s="4"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="4"/>
     </row>
     <row r="189" spans="3:13">
       <c r="C189" s="4"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="4"/>
     </row>
     <row r="190" spans="3:13">
       <c r="C190" s="4"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="4"/>
     </row>
     <row r="191" spans="3:13">
       <c r="C191" s="4"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="4"/>
     </row>
     <row r="192" spans="3:13">
       <c r="C192" s="4"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="4"/>
-    </row>
-    <row r="193" spans="3:13">
+    </row>
+    <row r="193" spans="3:12">
       <c r="C193" s="4"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="4"/>
-    </row>
-    <row r="194" spans="3:13">
+    </row>
+    <row r="194" spans="3:12">
       <c r="C194" s="4"/>
       <c r="L194" s="4"/>
     </row>
-    <row r="195" spans="3:13">
+    <row r="195" spans="3:12">
       <c r="C195" s="4"/>
-      <c r="L195" s="4"/>
-    </row>
-    <row r="196" spans="3:13">
+    </row>
+    <row r="196" spans="3:12">
       <c r="C196" s="4"/>
-      <c r="L196" s="4"/>
-    </row>
-    <row r="197" spans="3:13">
+    </row>
+    <row r="197" spans="3:12">
       <c r="C197" s="4"/>
-      <c r="L197" s="4"/>
-    </row>
-    <row r="198" spans="3:13">
+    </row>
+    <row r="198" spans="3:12">
       <c r="C198" s="4"/>
-      <c r="L198" s="4"/>
-    </row>
-    <row r="199" spans="3:13">
+    </row>
+    <row r="199" spans="3:12">
       <c r="C199" s="4"/>
-      <c r="L199" s="4"/>
-    </row>
-    <row r="200" spans="3:13">
+    </row>
+    <row r="200" spans="3:12">
       <c r="C200" s="4"/>
-      <c r="L200" s="4"/>
-    </row>
-    <row r="201" spans="3:13">
+    </row>
+    <row r="201" spans="3:12">
       <c r="C201" s="4"/>
-      <c r="L201" s="4"/>
-    </row>
-    <row r="202" spans="3:13">
+    </row>
+    <row r="202" spans="3:12">
       <c r="C202" s="4"/>
     </row>
-    <row r="203" spans="3:13">
+    <row r="203" spans="3:12">
       <c r="C203" s="4"/>
     </row>
-    <row r="204" spans="3:13">
+    <row r="204" spans="3:12">
       <c r="C204" s="4"/>
     </row>
-    <row r="205" spans="3:13">
+    <row r="205" spans="3:12">
       <c r="C205" s="4"/>
     </row>
-    <row r="206" spans="3:13">
+    <row r="206" spans="3:12">
       <c r="C206" s="4"/>
     </row>
-    <row r="207" spans="3:13">
+    <row r="207" spans="3:12">
       <c r="C207" s="4"/>
     </row>
-    <row r="208" spans="3:13">
+    <row r="208" spans="3:12">
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="3:3">
@@ -9386,48 +9325,27 @@
     <row r="223" spans="3:3">
       <c r="C223" s="4"/>
     </row>
-    <row r="224" spans="3:3">
-      <c r="C224" s="4"/>
-    </row>
-    <row r="225" spans="3:3">
-      <c r="C225" s="4"/>
-    </row>
-    <row r="226" spans="3:3">
-      <c r="C226" s="4"/>
-    </row>
-    <row r="227" spans="3:3">
-      <c r="C227" s="4"/>
-    </row>
-    <row r="228" spans="3:3">
-      <c r="C228" s="4"/>
-    </row>
-    <row r="229" spans="3:3">
-      <c r="C229" s="4"/>
-    </row>
-    <row r="230" spans="3:3">
-      <c r="C230" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N114">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N114 N129">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F85 F127:F137 F144:F182 F88:F115 F118:F124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F85 F118:F124 F88:F115 F127:F138 F145:F175">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D130:D137 D144">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G138 G145:G175">
+      <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D131:D138">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G144:G182 G3:G137">
-      <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E144:E182 E3:E137">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E145:E175 E3:E138">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.40.20.70_InvokedAndRevokedSetDeviceData.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.70_InvokedAndRevokedSetDeviceData.xlsx
@@ -3816,10 +3816,6 @@
     <t>Configure_devices</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Equal</t>
   </si>
   <si>
@@ -3836,6 +3832,10 @@
   </si>
   <si>
     <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4079,21 +4079,7 @@
     <cellStyle name="常规 2 3" xfId="4"/>
     <cellStyle name="常规 2 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4820,8 +4806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7241,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="20"/>
@@ -7269,7 +7255,7 @@
         <v>827</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J86" s="20" t="b">
         <v>1</v>
@@ -7918,7 +7904,7 @@
         <v>109</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E110" s="19"/>
       <c r="F110" s="20"/>
@@ -7997,7 +7983,7 @@
         <v>801</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>796</v>
@@ -8051,7 +8037,7 @@
         <v>2</v>
       </c>
       <c r="I115" s="20" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="20"/>
@@ -8078,7 +8064,7 @@
         <v>827</v>
       </c>
       <c r="I116" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J116" s="20" t="b">
         <v>1</v>
@@ -8144,7 +8130,7 @@
         <v>118</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="20"/>
@@ -8220,7 +8206,7 @@
         <v>818</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="J122" s="4" t="s">
         <v>796</v>
@@ -8272,7 +8258,7 @@
         <v>2</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="20"/>
@@ -8299,7 +8285,7 @@
         <v>827</v>
       </c>
       <c r="I125" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="J125" s="20" t="b">
         <v>1</v>
@@ -8677,7 +8663,7 @@
         <v>3</v>
       </c>
       <c r="H141" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
